--- a/2016-03-21_data/models.xlsx
+++ b/2016-03-21_data/models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-21220" yWindow="0" windowWidth="21600" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="-22180" yWindow="1060" windowWidth="21600" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,75 @@
   </si>
   <si>
     <t>Hypers(var_n=0.98147594886680389, var_p=1.0000000000000001e-05)</t>
+  </si>
+  <si>
+    <t>peak_green_ratio</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.28818859003558239, var_p=0.5092397913875174)</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.28306888121301238, ell=40.98076920387328)</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.2820590699356596, ell=47.401370272211324)</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.2832017968767227, sigma_f=0.93106420538606827, ell=30.554936687641732)</t>
+  </si>
+  <si>
+    <t>ss_green</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.26267914889336491, var_p=0.71056386756239298)</t>
+  </si>
+  <si>
+    <t>ss_red</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.38732104388240945, var_p=0.73591258993921171)</t>
+  </si>
+  <si>
+    <t>ss_cyan</t>
+  </si>
+  <si>
+    <t>ss_teal</t>
+  </si>
+  <si>
+    <t>ss_violet</t>
+  </si>
+  <si>
+    <t>ss_blue</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.65951543520724643, var_p=0.54625824498478415)</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.97511162004180296, var_p=0.0067092063747461808)</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.66322939132599756, var_p=0.84077003077915213)</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.62857027885263994, var_p=0.51022465441724618)</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.38433358901934611, ell=18.260962441293746)</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.45573304885661042, sigma_f=0.76291431833797352, ell=12.39707193305734)</t>
+  </si>
+  <si>
+    <t>log_peak_max</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.076694701182353414, ell=7.5347836014633041)</t>
+  </si>
+  <si>
+    <t>log_peak_green</t>
+  </si>
+  <si>
+    <t>Hypers(var_n=0.48766261352288987, var_p=0.63838796083791727)</t>
   </si>
 </sst>
 </file>
@@ -570,16 +639,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1095,6 +1165,328 @@
       </c>
       <c r="H22" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-52.216850999999998</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-47.326169</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-53.476455000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-47.712316999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-53.909047000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-48.040303000000002</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-53.100591000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-47.558754999999998</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.81989999999999996</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-52.030925000000003</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-46.109687000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-60.562184000000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-55.816763000000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.73670000000000002</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.53039999999999998</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-71.452267000000006</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-69.639658999999995</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-76.117149999999995</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-76.108442999999994</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-2.3099999999999999E-2</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-73.211847000000006</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-70.113450999999998</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.4476</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-70.086590999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-67.794746000000004</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.51239999999999997</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-69.746010999999996</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-67.249917999999994</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.5141</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-69.248998</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-67.018426000000005</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-72.331029000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-68.688830999999993</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-65.045062000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-60.974125999999998</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
